--- a/www.eia.gov/electricity/monthly/xls/table_1_17_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_17_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
   <si>
     <t>Table 1.17.B. Net Generation from Solar Photovoltaic</t>
   </si>
   <si>
-    <t>by State, by Sector, Year-to-Date through October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, by Sector, Year-to-Date through November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -76,10 +76,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>Percentage
@@ -1532,43 +1532,43 @@
         <v>19</v>
       </c>
       <c r="B7" s="10">
-        <v>2206</v>
+        <v>2356</v>
       </c>
       <c r="C7" s="10">
-        <v>1484</v>
+        <v>1596</v>
       </c>
       <c r="D7" s="11">
-        <v>0.48599999999999999</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="E7" s="10">
-        <v>650</v>
+        <v>703</v>
       </c>
       <c r="F7" s="10">
-        <v>459</v>
+        <v>497</v>
       </c>
       <c r="G7" s="10">
-        <v>1556</v>
+        <v>1653</v>
       </c>
       <c r="H7" s="10">
-        <v>1025</v>
+        <v>1098</v>
       </c>
       <c r="I7" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J7" s="10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" s="10">
-        <v>626</v>
+        <v>676</v>
       </c>
       <c r="L7" s="10">
-        <v>445</v>
+        <v>482</v>
       </c>
       <c r="M7" s="10">
-        <v>861</v>
+        <v>917</v>
       </c>
       <c r="N7" s="10">
-        <v>658</v>
+        <v>701</v>
       </c>
       <c r="O7" s="10">
         <v>7</v>
@@ -1577,16 +1577,16 @@
         <v>3</v>
       </c>
       <c r="Q7" s="10">
-        <v>855</v>
+        <v>910</v>
       </c>
       <c r="R7" s="10">
-        <v>655</v>
+        <v>699</v>
       </c>
       <c r="S7" s="10">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="T7" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="U7" s="10">
         <v>0</v>
@@ -1595,16 +1595,16 @@
         <v>0</v>
       </c>
       <c r="W7" s="10">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="X7" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Y7" s="10">
-        <v>629</v>
+        <v>667</v>
       </c>
       <c r="Z7" s="10">
-        <v>325</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -1612,25 +1612,25 @@
         <v>20</v>
       </c>
       <c r="B8" s="13">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="C8" s="13">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="D8" s="14">
-        <v>0.60499999999999998</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="E8" s="13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" s="13">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="H8" s="13">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>21</v>
@@ -1639,31 +1639,31 @@
         <v>0</v>
       </c>
       <c r="K8" s="13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L8" s="13">
+        <v>16</v>
+      </c>
+      <c r="M8" s="13">
+        <v>121</v>
+      </c>
+      <c r="N8" s="13">
+        <v>85</v>
+      </c>
+      <c r="O8" s="13">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>121</v>
+      </c>
+      <c r="R8" s="13">
+        <v>85</v>
+      </c>
+      <c r="S8" s="13">
         <v>15</v>
-      </c>
-      <c r="M8" s="13">
-        <v>114</v>
-      </c>
-      <c r="N8" s="13">
-        <v>79</v>
-      </c>
-      <c r="O8" s="13">
-        <v>0</v>
-      </c>
-      <c r="P8" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="13">
-        <v>114</v>
-      </c>
-      <c r="R8" s="13">
-        <v>79</v>
-      </c>
-      <c r="S8" s="13">
-        <v>14</v>
       </c>
       <c r="T8" s="13">
         <v>9</v>
@@ -1675,16 +1675,16 @@
         <v>0</v>
       </c>
       <c r="W8" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X8" s="13">
         <v>9</v>
       </c>
       <c r="Y8" s="13">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="Z8" s="13">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -1692,13 +1692,13 @@
         <v>22</v>
       </c>
       <c r="B9" s="13">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" s="13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="14">
-        <v>0.57199999999999995</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="E9" s="13">
         <v>0</v>
@@ -1707,10 +1707,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="13">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H9" s="13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I9" s="13">
         <v>0</v>
@@ -1725,10 +1725,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N9" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O9" s="13">
         <v>0</v>
@@ -1737,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="Q9" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R9" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S9" s="13">
         <v>0.03</v>
@@ -1761,10 +1761,10 @@
         <v>0.03</v>
       </c>
       <c r="Y9" s="13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z9" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
@@ -1772,43 +1772,43 @@
         <v>23</v>
       </c>
       <c r="B10" s="13">
-        <v>1669</v>
+        <v>1783</v>
       </c>
       <c r="C10" s="13">
-        <v>1146</v>
+        <v>1232</v>
       </c>
       <c r="D10" s="14">
-        <v>0.45700000000000002</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="E10" s="13">
-        <v>561</v>
+        <v>607</v>
       </c>
       <c r="F10" s="13">
-        <v>390</v>
+        <v>422</v>
       </c>
       <c r="G10" s="13">
-        <v>1108</v>
+        <v>1177</v>
       </c>
       <c r="H10" s="13">
-        <v>756</v>
+        <v>809</v>
       </c>
       <c r="I10" s="13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J10" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K10" s="13">
-        <v>540</v>
+        <v>584</v>
       </c>
       <c r="L10" s="13">
-        <v>375</v>
+        <v>407</v>
       </c>
       <c r="M10" s="13">
-        <v>685</v>
+        <v>729</v>
       </c>
       <c r="N10" s="13">
-        <v>541</v>
+        <v>577</v>
       </c>
       <c r="O10" s="13">
         <v>7</v>
@@ -1817,16 +1817,16 @@
         <v>3</v>
       </c>
       <c r="Q10" s="13">
-        <v>679</v>
+        <v>722</v>
       </c>
       <c r="R10" s="13">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="S10" s="13">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T10" s="13">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U10" s="13">
         <v>0</v>
@@ -1835,16 +1835,16 @@
         <v>0</v>
       </c>
       <c r="W10" s="13">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="X10" s="13">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Y10" s="13">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="Z10" s="13">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -1852,13 +1852,13 @@
         <v>24</v>
       </c>
       <c r="B11" s="13">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C11" s="13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" s="14">
-        <v>1.331</v>
+        <v>1.31</v>
       </c>
       <c r="E11" s="13">
         <v>0</v>
@@ -1867,10 +1867,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="13">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H11" s="13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I11" s="13">
         <v>0</v>
@@ -1885,10 +1885,10 @@
         <v>0</v>
       </c>
       <c r="M11" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N11" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O11" s="13">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="Q11" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R11" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S11" s="13">
         <v>2</v>
@@ -1921,10 +1921,10 @@
         <v>1</v>
       </c>
       <c r="Y11" s="13">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Z11" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -1932,22 +1932,22 @@
         <v>25</v>
       </c>
       <c r="B12" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C12" s="13">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" s="14">
-        <v>0.504</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="E12" s="13">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F12" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" s="13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H12" s="13">
         <v>12</v>
@@ -1959,16 +1959,16 @@
         <v>0</v>
       </c>
       <c r="K12" s="13">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L12" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M12" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N12" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O12" s="13">
         <v>0</v>
@@ -1977,10 +1977,10 @@
         <v>0</v>
       </c>
       <c r="Q12" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R12" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S12" s="13">
         <v>0</v>
@@ -2012,25 +2012,25 @@
         <v>26</v>
       </c>
       <c r="B13" s="13">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C13" s="13">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D13" s="14">
-        <v>0.40100000000000002</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="E13" s="13">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F13" s="13">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G13" s="13">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H13" s="13">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I13" s="13">
         <v>0</v>
@@ -2039,16 +2039,16 @@
         <v>0</v>
       </c>
       <c r="K13" s="13">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L13" s="13">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M13" s="13">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N13" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O13" s="13">
         <v>0</v>
@@ -2057,16 +2057,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="13">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R13" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S13" s="13">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="T13" s="13">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="U13" s="13">
         <v>0</v>
@@ -2075,16 +2075,16 @@
         <v>0</v>
       </c>
       <c r="W13" s="13">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="X13" s="13">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="Y13" s="13">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z13" s="13">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -2092,79 +2092,79 @@
         <v>27</v>
       </c>
       <c r="B14" s="10">
-        <v>3519</v>
+        <v>3769</v>
       </c>
       <c r="C14" s="10">
-        <v>2734</v>
+        <v>2917</v>
       </c>
       <c r="D14" s="11">
-        <v>0.28699999999999998</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E14" s="10">
-        <v>941</v>
+        <v>1018</v>
       </c>
       <c r="F14" s="10">
-        <v>714</v>
+        <v>764</v>
       </c>
       <c r="G14" s="10">
-        <v>2579</v>
+        <v>2751</v>
       </c>
       <c r="H14" s="10">
-        <v>2020</v>
+        <v>2154</v>
       </c>
       <c r="I14" s="10">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J14" s="10">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K14" s="10">
-        <v>690</v>
+        <v>748</v>
       </c>
       <c r="L14" s="10">
-        <v>523</v>
+        <v>559</v>
       </c>
       <c r="M14" s="10">
-        <v>1567</v>
+        <v>1671</v>
       </c>
       <c r="N14" s="10">
-        <v>1353</v>
+        <v>1440</v>
       </c>
       <c r="O14" s="10">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="P14" s="10">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Q14" s="10">
-        <v>1424</v>
+        <v>1516</v>
       </c>
       <c r="R14" s="10">
-        <v>1228</v>
+        <v>1307</v>
       </c>
       <c r="S14" s="10">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="T14" s="10">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="U14" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V14" s="10">
         <v>9</v>
       </c>
       <c r="W14" s="10">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="X14" s="10">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="Y14" s="10">
-        <v>1011</v>
+        <v>1081</v>
       </c>
       <c r="Z14" s="10">
-        <v>660</v>
+        <v>706</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -2172,61 +2172,61 @@
         <v>28</v>
       </c>
       <c r="B15" s="13">
-        <v>2234</v>
+        <v>2399</v>
       </c>
       <c r="C15" s="13">
-        <v>1836</v>
+        <v>1959</v>
       </c>
       <c r="D15" s="14">
-        <v>0.217</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="E15" s="13">
-        <v>720</v>
+        <v>780</v>
       </c>
       <c r="F15" s="13">
-        <v>568</v>
+        <v>606</v>
       </c>
       <c r="G15" s="13">
-        <v>1515</v>
+        <v>1619</v>
       </c>
       <c r="H15" s="13">
-        <v>1268</v>
+        <v>1353</v>
       </c>
       <c r="I15" s="13">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J15" s="13">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K15" s="13">
-        <v>485</v>
+        <v>527</v>
       </c>
       <c r="L15" s="13">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="M15" s="13">
-        <v>1143</v>
+        <v>1222</v>
       </c>
       <c r="N15" s="13">
-        <v>1020</v>
+        <v>1087</v>
       </c>
       <c r="O15" s="13">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="P15" s="13">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="Q15" s="13">
-        <v>1007</v>
+        <v>1074</v>
       </c>
       <c r="R15" s="13">
-        <v>900</v>
+        <v>959</v>
       </c>
       <c r="S15" s="13">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T15" s="13">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="U15" s="13" t="s">
         <v>21</v>
@@ -2235,16 +2235,16 @@
         <v>1</v>
       </c>
       <c r="W15" s="13">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="X15" s="13">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Y15" s="13">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="Z15" s="13">
-        <v>297</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
@@ -2252,25 +2252,25 @@
         <v>29</v>
       </c>
       <c r="B16" s="13">
-        <v>951</v>
+        <v>1013</v>
       </c>
       <c r="C16" s="13">
-        <v>608</v>
+        <v>650</v>
       </c>
       <c r="D16" s="14">
-        <v>0.56299999999999994</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="E16" s="13">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="F16" s="13">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G16" s="13">
-        <v>798</v>
+        <v>848</v>
       </c>
       <c r="H16" s="13">
-        <v>520</v>
+        <v>554</v>
       </c>
       <c r="I16" s="13">
         <v>0</v>
@@ -2279,16 +2279,16 @@
         <v>0</v>
       </c>
       <c r="K16" s="13">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="L16" s="13">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M16" s="13">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="N16" s="13">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="O16" s="13" t="s">
         <v>21</v>
@@ -2297,10 +2297,10 @@
         <v>2</v>
       </c>
       <c r="Q16" s="13">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="R16" s="13">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="S16" s="13">
         <v>12</v>
@@ -2321,10 +2321,10 @@
         <v>9</v>
       </c>
       <c r="Y16" s="13">
-        <v>486</v>
+        <v>517</v>
       </c>
       <c r="Z16" s="13">
-        <v>281</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
@@ -2332,25 +2332,25 @@
         <v>30</v>
       </c>
       <c r="B17" s="13">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="C17" s="13">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="D17" s="14">
-        <v>0.151</v>
+        <v>0.157</v>
       </c>
       <c r="E17" s="13">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F17" s="13">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G17" s="13">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="H17" s="13">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="I17" s="13">
         <v>0</v>
@@ -2359,16 +2359,16 @@
         <v>0</v>
       </c>
       <c r="K17" s="13">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L17" s="13">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M17" s="13">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="N17" s="13">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O17" s="13">
         <v>5</v>
@@ -2377,34 +2377,34 @@
         <v>3</v>
       </c>
       <c r="Q17" s="13">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="R17" s="13">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="S17" s="13">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="T17" s="13">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U17" s="13">
         <v>9</v>
       </c>
       <c r="V17" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W17" s="13">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X17" s="13">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Y17" s="13">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Z17" s="13">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
@@ -2412,43 +2412,43 @@
         <v>31</v>
       </c>
       <c r="B18" s="10">
-        <v>585</v>
+        <v>630</v>
       </c>
       <c r="C18" s="10">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="D18" s="11">
-        <v>0.438</v>
+        <v>0.442</v>
       </c>
       <c r="E18" s="10">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="F18" s="10">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="G18" s="10">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="H18" s="10">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="I18" s="10">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="J18" s="10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K18" s="10">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="L18" s="10">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="M18" s="10">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="N18" s="10">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="O18" s="10" t="s">
         <v>21</v>
@@ -2457,10 +2457,10 @@
         <v>3</v>
       </c>
       <c r="Q18" s="10">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="R18" s="10">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="S18" s="10">
         <v>11</v>
@@ -2481,10 +2481,10 @@
         <v>5</v>
       </c>
       <c r="Y18" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="Z18" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -2492,25 +2492,25 @@
         <v>32</v>
       </c>
       <c r="B19" s="13">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C19" s="13">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D19" s="14">
-        <v>0.251</v>
+        <v>0.25</v>
       </c>
       <c r="E19" s="13">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F19" s="13">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G19" s="13">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H19" s="13">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>21</v>
@@ -2519,16 +2519,16 @@
         <v>1</v>
       </c>
       <c r="K19" s="13">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L19" s="13">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M19" s="13">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N19" s="13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O19" s="13">
         <v>0</v>
@@ -2537,16 +2537,16 @@
         <v>0</v>
       </c>
       <c r="Q19" s="13">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R19" s="13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S19" s="13">
         <v>0.08</v>
       </c>
       <c r="T19" s="13">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="U19" s="13">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>0.08</v>
       </c>
       <c r="X19" s="13">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="Y19" s="13">
         <v>10</v>
@@ -2572,40 +2572,40 @@
         <v>33</v>
       </c>
       <c r="B20" s="13">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="C20" s="13">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D20" s="14">
-        <v>0.72299999999999998</v>
+        <v>0.72</v>
       </c>
       <c r="E20" s="13">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="F20" s="13">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G20" s="13">
+        <v>13</v>
+      </c>
+      <c r="H20" s="13">
         <v>12</v>
       </c>
-      <c r="H20" s="13">
-        <v>11</v>
-      </c>
       <c r="I20" s="13">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J20" s="13">
+        <v>7</v>
+      </c>
+      <c r="K20" s="13">
+        <v>209</v>
+      </c>
+      <c r="L20" s="13">
+        <v>138</v>
+      </c>
+      <c r="M20" s="13">
         <v>6</v>
-      </c>
-      <c r="K20" s="13">
-        <v>194</v>
-      </c>
-      <c r="L20" s="13">
-        <v>128</v>
-      </c>
-      <c r="M20" s="13">
-        <v>5</v>
       </c>
       <c r="N20" s="13">
         <v>6</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R20" s="13">
         <v>6</v>
@@ -2652,28 +2652,28 @@
         <v>34</v>
       </c>
       <c r="B21" s="13">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C21" s="13">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D21" s="14">
-        <v>0.50700000000000001</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="E21" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F21" s="13">
         <v>1</v>
       </c>
       <c r="G21" s="13">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H21" s="13">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I21" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J21" s="13">
         <v>1</v>
@@ -2685,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="M21" s="13">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N21" s="13">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O21" s="13">
         <v>0</v>
@@ -2697,10 +2697,10 @@
         <v>0</v>
       </c>
       <c r="Q21" s="13">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R21" s="13">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S21" s="13">
         <v>1</v>
@@ -2724,7 +2724,7 @@
         <v>12</v>
       </c>
       <c r="Z21" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -2732,43 +2732,43 @@
         <v>35</v>
       </c>
       <c r="B22" s="13">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C22" s="13">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D22" s="14">
-        <v>0.249</v>
+        <v>0.25</v>
       </c>
       <c r="E22" s="13">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F22" s="13">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G22" s="13">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H22" s="13">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I22" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J22" s="13">
         <v>8</v>
       </c>
       <c r="K22" s="13">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L22" s="13">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M22" s="13">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="N22" s="13">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O22" s="13" t="s">
         <v>21</v>
@@ -2777,10 +2777,10 @@
         <v>3</v>
       </c>
       <c r="Q22" s="13">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="R22" s="13">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="S22" s="13">
         <v>9</v>
@@ -2801,10 +2801,10 @@
         <v>4</v>
       </c>
       <c r="Y22" s="13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z22" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
@@ -2812,13 +2812,13 @@
         <v>36</v>
       </c>
       <c r="B23" s="13">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C23" s="13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" s="14">
-        <v>0.222</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>21</v>
@@ -2827,10 +2827,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H23" s="13">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I23" s="13">
         <v>0</v>
@@ -2845,11 +2845,11 @@
         <v>1</v>
       </c>
       <c r="M23" s="13">
+        <v>17</v>
+      </c>
+      <c r="N23" s="13">
         <v>16</v>
       </c>
-      <c r="N23" s="13">
-        <v>15</v>
-      </c>
       <c r="O23" s="13">
         <v>0</v>
       </c>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="Q23" s="13">
+        <v>17</v>
+      </c>
+      <c r="R23" s="13">
         <v>16</v>
-      </c>
-      <c r="R23" s="13">
-        <v>15</v>
       </c>
       <c r="S23" s="13">
         <v>1</v>
@@ -2884,7 +2884,7 @@
         <v>13</v>
       </c>
       <c r="Z23" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -2892,55 +2892,55 @@
         <v>37</v>
       </c>
       <c r="B24" s="10">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="C24" s="10">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="D24" s="11">
-        <v>0.3</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="E24" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F24" s="10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G24" s="10">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="H24" s="10">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="I24" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24" s="10">
         <v>0</v>
       </c>
       <c r="K24" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L24" s="10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M24" s="10">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="N24" s="10">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="O24" s="10" t="s">
         <v>21</v>
       </c>
       <c r="P24" s="10">
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
       <c r="Q24" s="10">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="R24" s="10">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="S24" s="10">
         <v>4</v>
@@ -2961,10 +2961,10 @@
         <v>3</v>
       </c>
       <c r="Y24" s="10">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="Z24" s="10">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -2972,13 +2972,13 @@
         <v>38</v>
       </c>
       <c r="B25" s="13">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C25" s="13">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D25" s="14">
-        <v>0.29099999999999998</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="E25" s="13">
         <v>0</v>
@@ -2987,10 +2987,10 @@
         <v>0</v>
       </c>
       <c r="G25" s="13">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H25" s="13">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I25" s="13">
         <v>0</v>
@@ -3005,10 +3005,10 @@
         <v>0</v>
       </c>
       <c r="M25" s="13">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N25" s="13">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O25" s="13">
         <v>0</v>
@@ -3017,10 +3017,10 @@
         <v>0</v>
       </c>
       <c r="Q25" s="13">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R25" s="13">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S25" s="13">
         <v>1</v>
@@ -3041,10 +3041,10 @@
         <v>1</v>
       </c>
       <c r="Y25" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z25" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
@@ -3052,13 +3052,13 @@
         <v>39</v>
       </c>
       <c r="B26" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" s="14">
-        <v>0.82399999999999995</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>21</v>
@@ -3067,7 +3067,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H26" s="13">
         <v>4</v>
@@ -3085,7 +3085,7 @@
         <v>2</v>
       </c>
       <c r="M26" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26" s="13">
         <v>2</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R26" s="13">
         <v>2</v>
@@ -3132,25 +3132,25 @@
         <v>40</v>
       </c>
       <c r="B27" s="13">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C27" s="13">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D27" s="14">
-        <v>0.54600000000000004</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E27" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F27" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" s="13">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H27" s="13">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I27" s="13">
         <v>0</v>
@@ -3159,16 +3159,16 @@
         <v>0</v>
       </c>
       <c r="K27" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L27" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M27" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N27" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O27" s="13">
         <v>0</v>
@@ -3177,16 +3177,16 @@
         <v>0</v>
       </c>
       <c r="Q27" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R27" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S27" s="13">
         <v>2</v>
       </c>
       <c r="T27" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U27" s="13">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>2</v>
       </c>
       <c r="X27" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y27" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z27" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
@@ -3212,55 +3212,55 @@
         <v>41</v>
       </c>
       <c r="B28" s="13">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C28" s="13">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="D28" s="14">
-        <v>0.20399999999999999</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="E28" s="13">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F28" s="13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G28" s="13">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="H28" s="13">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="I28" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J28" s="13">
         <v>0</v>
       </c>
       <c r="K28" s="13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L28" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M28" s="13">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="N28" s="13">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O28" s="13" t="s">
         <v>21</v>
       </c>
       <c r="P28" s="13">
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
       <c r="Q28" s="13">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="R28" s="13">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="S28" s="13">
         <v>1</v>
@@ -3281,10 +3281,10 @@
         <v>1</v>
       </c>
       <c r="Y28" s="13">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="Z28" s="13">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
@@ -3292,13 +3292,13 @@
         <v>42</v>
       </c>
       <c r="B29" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" s="13">
         <v>1</v>
       </c>
       <c r="D29" s="14">
-        <v>4.34</v>
+        <v>4.54</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>21</v>
@@ -3325,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="M29" s="13">
-        <v>0.37</v>
+        <v>0.42</v>
       </c>
       <c r="N29" s="13">
-        <v>0.27</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="O29" s="13">
         <v>0</v>
@@ -3337,17 +3337,17 @@
         <v>0</v>
       </c>
       <c r="Q29" s="13">
-        <v>0.37</v>
+        <v>0.42</v>
       </c>
       <c r="R29" s="13">
-        <v>0.27</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="S29" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="T29" s="13">
         <v>0.09</v>
       </c>
-      <c r="T29" s="13">
-        <v>0.08</v>
-      </c>
       <c r="U29" s="13">
         <v>0</v>
       </c>
@@ -3355,10 +3355,10 @@
         <v>0</v>
       </c>
       <c r="W29" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="X29" s="13">
         <v>0.09</v>
-      </c>
-      <c r="X29" s="13">
-        <v>0.08</v>
       </c>
       <c r="Y29" s="13">
         <v>1</v>
@@ -3372,13 +3372,13 @@
         <v>43</v>
       </c>
       <c r="B30" s="13">
-        <v>0.26</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C30" s="13">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="D30" s="14">
-        <v>2.9000000000000001E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="E30" s="13">
         <v>0</v>
@@ -3387,10 +3387,10 @@
         <v>0</v>
       </c>
       <c r="G30" s="13">
-        <v>0.26</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H30" s="13">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="I30" s="13">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="Y30" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="Z30" s="13">
         <v>0.24</v>
-      </c>
-      <c r="Z30" s="13">
-        <v>0.22</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
@@ -3455,10 +3455,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="13">
-        <v>0.47</v>
+        <v>1</v>
       </c>
       <c r="D31" s="14">
-        <v>0.73699999999999999</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="E31" s="13">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="13">
-        <v>0.47</v>
+        <v>1</v>
       </c>
       <c r="I31" s="13">
         <v>0</v>
@@ -3488,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="N31" s="13">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="O31" s="13">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="R31" s="13">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="S31" s="13">
         <v>0</v>
@@ -3521,10 +3521,10 @@
         <v>0</v>
       </c>
       <c r="Y31" s="13">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="Z31" s="13">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
@@ -3532,61 +3532,61 @@
         <v>45</v>
       </c>
       <c r="B32" s="10">
-        <v>5575</v>
+        <v>6060</v>
       </c>
       <c r="C32" s="10">
-        <v>2240</v>
+        <v>2402</v>
       </c>
       <c r="D32" s="11">
-        <v>1.4890000000000001</v>
+        <v>1.5229999999999999</v>
       </c>
       <c r="E32" s="10">
-        <v>4271</v>
+        <v>4653</v>
       </c>
       <c r="F32" s="10">
-        <v>1523</v>
+        <v>1625</v>
       </c>
       <c r="G32" s="10">
-        <v>1304</v>
+        <v>1407</v>
       </c>
       <c r="H32" s="10">
-        <v>717</v>
+        <v>777</v>
       </c>
       <c r="I32" s="10">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="J32" s="10">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K32" s="10">
-        <v>3753</v>
+        <v>4093</v>
       </c>
       <c r="L32" s="10">
-        <v>1365</v>
+        <v>1457</v>
       </c>
       <c r="M32" s="10">
-        <v>874</v>
+        <v>940</v>
       </c>
       <c r="N32" s="10">
-        <v>517</v>
+        <v>555</v>
       </c>
       <c r="O32" s="10">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P32" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Q32" s="10">
-        <v>753</v>
+        <v>810</v>
       </c>
       <c r="R32" s="10">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="S32" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="T32" s="10">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="U32" s="10">
         <v>0</v>
@@ -3595,16 +3595,16 @@
         <v>0</v>
       </c>
       <c r="W32" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="X32" s="10">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y32" s="10">
-        <v>501</v>
+        <v>545</v>
       </c>
       <c r="Z32" s="10">
-        <v>259</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
@@ -3612,43 +3612,43 @@
         <v>46</v>
       </c>
       <c r="B33" s="13">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C33" s="13">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D33" s="14">
-        <v>0.35499999999999998</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="E33" s="13">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F33" s="13">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G33" s="13">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="H33" s="13">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I33" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J33" s="13">
         <v>6</v>
       </c>
       <c r="K33" s="13">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L33" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M33" s="13">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N33" s="13">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O33" s="13" t="s">
         <v>21</v>
@@ -3657,10 +3657,10 @@
         <v>1</v>
       </c>
       <c r="Q33" s="13">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="R33" s="13">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S33" s="13">
         <v>3</v>
@@ -3681,10 +3681,10 @@
         <v>4</v>
       </c>
       <c r="Y33" s="13">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Z33" s="13">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
@@ -3692,13 +3692,13 @@
         <v>47</v>
       </c>
       <c r="B34" s="13">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C34" s="13">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D34" s="14">
-        <v>0.628</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="E34" s="13">
         <v>0</v>
@@ -3707,10 +3707,10 @@
         <v>0</v>
       </c>
       <c r="G34" s="13">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H34" s="13">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I34" s="13">
         <v>0</v>
@@ -3725,10 +3725,10 @@
         <v>0</v>
       </c>
       <c r="M34" s="13">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N34" s="13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O34" s="13">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         <v>0</v>
       </c>
       <c r="Q34" s="13">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R34" s="13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="S34" s="13">
         <v>0</v>
@@ -3761,10 +3761,10 @@
         <v>0</v>
       </c>
       <c r="Y34" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z34" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
@@ -3772,43 +3772,43 @@
         <v>48</v>
       </c>
       <c r="B35" s="13">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="C35" s="13">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="D35" s="14">
-        <v>0.59199999999999997</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="E35" s="13">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="F35" s="13">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G35" s="13">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="H35" s="13">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="I35" s="13">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J35" s="13">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K35" s="13">
+        <v>75</v>
+      </c>
+      <c r="L35" s="13">
+        <v>47</v>
+      </c>
+      <c r="M35" s="13">
+        <v>123</v>
+      </c>
+      <c r="N35" s="13">
         <v>69</v>
-      </c>
-      <c r="L35" s="13">
-        <v>44</v>
-      </c>
-      <c r="M35" s="13">
-        <v>114</v>
-      </c>
-      <c r="N35" s="13">
-        <v>64</v>
       </c>
       <c r="O35" s="13" t="s">
         <v>21</v>
@@ -3817,13 +3817,13 @@
         <v>2</v>
       </c>
       <c r="Q35" s="13">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="R35" s="13">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="S35" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T35" s="13">
         <v>3</v>
@@ -3835,16 +3835,16 @@
         <v>0</v>
       </c>
       <c r="W35" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X35" s="13">
         <v>3</v>
       </c>
       <c r="Y35" s="13">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="Z35" s="13">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
@@ -3852,43 +3852,43 @@
         <v>49</v>
       </c>
       <c r="B36" s="13">
-        <v>840</v>
+        <v>950</v>
       </c>
       <c r="C36" s="13">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="D36" s="14">
-        <v>3.3940000000000001</v>
+        <v>3.6110000000000002</v>
       </c>
       <c r="E36" s="13">
-        <v>683</v>
+        <v>782</v>
       </c>
       <c r="F36" s="13">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G36" s="13">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="H36" s="13">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I36" s="13">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="J36" s="13">
         <v>1</v>
       </c>
       <c r="K36" s="13">
-        <v>613</v>
+        <v>698</v>
       </c>
       <c r="L36" s="13">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M36" s="13">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="N36" s="13">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O36" s="13" t="s">
         <v>21</v>
@@ -3897,10 +3897,10 @@
         <v>3</v>
       </c>
       <c r="Q36" s="13">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="R36" s="13">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="S36" s="13">
         <v>4</v>
@@ -3921,10 +3921,10 @@
         <v>2</v>
       </c>
       <c r="Y36" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z36" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
@@ -3932,61 +3932,61 @@
         <v>50</v>
       </c>
       <c r="B37" s="13">
-        <v>728</v>
+        <v>782</v>
       </c>
       <c r="C37" s="13">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="D37" s="14">
-        <v>0.83099999999999996</v>
+        <v>0.82099999999999995</v>
       </c>
       <c r="E37" s="13">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="F37" s="13">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G37" s="13">
-        <v>574</v>
+        <v>616</v>
       </c>
       <c r="H37" s="13">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="I37" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J37" s="13">
         <v>8</v>
       </c>
       <c r="K37" s="13">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="L37" s="13">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M37" s="13">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="N37" s="13">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="O37" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P37" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q37" s="13">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="R37" s="13">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="S37" s="13">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T37" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U37" s="13">
         <v>0</v>
@@ -3995,16 +3995,16 @@
         <v>0</v>
       </c>
       <c r="W37" s="13">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X37" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y37" s="13">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="Z37" s="13">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
@@ -4012,55 +4012,55 @@
         <v>51</v>
       </c>
       <c r="B38" s="13">
-        <v>3357</v>
+        <v>3614</v>
       </c>
       <c r="C38" s="13">
-        <v>1236</v>
+        <v>1318</v>
       </c>
       <c r="D38" s="14">
-        <v>1.7150000000000001</v>
+        <v>1.7410000000000001</v>
       </c>
       <c r="E38" s="13">
-        <v>3219</v>
+        <v>3463</v>
       </c>
       <c r="F38" s="13">
-        <v>1162</v>
+        <v>1238</v>
       </c>
       <c r="G38" s="13">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H38" s="13">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I38" s="13">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="J38" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K38" s="13">
-        <v>2885</v>
+        <v>3111</v>
       </c>
       <c r="L38" s="13">
-        <v>1089</v>
+        <v>1161</v>
       </c>
       <c r="M38" s="13">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="N38" s="13">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="O38" s="13">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="P38" s="13">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="Q38" s="13">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="R38" s="13">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="S38" s="13">
         <v>3</v>
@@ -4081,10 +4081,10 @@
         <v>2</v>
       </c>
       <c r="Y38" s="13">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z38" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
@@ -4092,13 +4092,13 @@
         <v>52</v>
       </c>
       <c r="B39" s="13">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C39" s="13">
         <v>10</v>
       </c>
       <c r="D39" s="14">
-        <v>1.837</v>
+        <v>1.9390000000000001</v>
       </c>
       <c r="E39" s="13">
         <v>4</v>
@@ -4107,10 +4107,10 @@
         <v>4</v>
       </c>
       <c r="G39" s="13">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H39" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I39" s="13">
         <v>0</v>
@@ -4125,46 +4125,46 @@
         <v>4</v>
       </c>
       <c r="M39" s="13">
+        <v>6</v>
+      </c>
+      <c r="N39" s="13">
+        <v>2</v>
+      </c>
+      <c r="O39" s="13">
+        <v>0</v>
+      </c>
+      <c r="P39" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="13">
+        <v>6</v>
+      </c>
+      <c r="R39" s="13">
+        <v>2</v>
+      </c>
+      <c r="S39" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="T39" s="13">
+        <v>0.06</v>
+      </c>
+      <c r="U39" s="13">
+        <v>0</v>
+      </c>
+      <c r="V39" s="13">
+        <v>0</v>
+      </c>
+      <c r="W39" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="X39" s="13">
+        <v>0.06</v>
+      </c>
+      <c r="Y39" s="13">
+        <v>20</v>
+      </c>
+      <c r="Z39" s="13">
         <v>5</v>
-      </c>
-      <c r="N39" s="13">
-        <v>1</v>
-      </c>
-      <c r="O39" s="13">
-        <v>0</v>
-      </c>
-      <c r="P39" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="13">
-        <v>5</v>
-      </c>
-      <c r="R39" s="13">
-        <v>1</v>
-      </c>
-      <c r="S39" s="13">
-        <v>0.09</v>
-      </c>
-      <c r="T39" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="U39" s="13">
-        <v>0</v>
-      </c>
-      <c r="V39" s="13">
-        <v>0</v>
-      </c>
-      <c r="W39" s="13">
-        <v>0.09</v>
-      </c>
-      <c r="X39" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="Y39" s="13">
-        <v>18</v>
-      </c>
-      <c r="Z39" s="13">
-        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
@@ -4172,25 +4172,25 @@
         <v>53</v>
       </c>
       <c r="B40" s="13">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C40" s="13">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D40" s="14">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>21</v>
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="E40" s="13">
+        <v>15</v>
       </c>
       <c r="F40" s="13">
         <v>0</v>
       </c>
       <c r="G40" s="13">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H40" s="13">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I40" s="13" t="s">
         <v>21</v>
@@ -4199,16 +4199,16 @@
         <v>0</v>
       </c>
       <c r="K40" s="13">
-        <v>0.34</v>
+        <v>9</v>
       </c>
       <c r="L40" s="13">
         <v>0</v>
       </c>
       <c r="M40" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N40" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O40" s="13">
         <v>0</v>
@@ -4217,16 +4217,16 @@
         <v>0</v>
       </c>
       <c r="Q40" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R40" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S40" s="13">
         <v>1</v>
       </c>
       <c r="T40" s="13">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="U40" s="13">
         <v>0</v>
@@ -4238,13 +4238,13 @@
         <v>1</v>
       </c>
       <c r="X40" s="13">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="Y40" s="13">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z40" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
@@ -4252,13 +4252,13 @@
         <v>54</v>
       </c>
       <c r="B41" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" s="13">
         <v>4</v>
       </c>
       <c r="D41" s="14">
-        <v>0.34799999999999998</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="E41" s="13">
         <v>0</v>
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H41" s="13">
         <v>4</v>
@@ -4285,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N41" s="13">
         <v>1</v>
@@ -4297,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R41" s="13">
         <v>1</v>
@@ -4332,58 +4332,58 @@
         <v>55</v>
       </c>
       <c r="B42" s="10">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="C42" s="10">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D42" s="11">
-        <v>0.28899999999999998</v>
+        <v>0.377</v>
       </c>
       <c r="E42" s="10">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="F42" s="10">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G42" s="10">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H42" s="10">
+        <v>74</v>
+      </c>
+      <c r="I42" s="10">
+        <v>11</v>
+      </c>
+      <c r="J42" s="10">
+        <v>0</v>
+      </c>
+      <c r="K42" s="10">
+        <v>102</v>
+      </c>
+      <c r="L42" s="10">
         <v>69</v>
       </c>
-      <c r="I42" s="10">
-        <v>10</v>
-      </c>
-      <c r="J42" s="10">
-        <v>0</v>
-      </c>
-      <c r="K42" s="10">
+      <c r="M42" s="10">
         <v>83</v>
       </c>
-      <c r="L42" s="10">
-        <v>64</v>
-      </c>
-      <c r="M42" s="10">
-        <v>78</v>
-      </c>
       <c r="N42" s="10">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="O42" s="10" t="s">
         <v>21</v>
       </c>
       <c r="P42" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q42" s="10">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="R42" s="10">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="S42" s="10">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="T42" s="10">
         <v>0.05</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="10">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="X42" s="10">
         <v>0.05</v>
@@ -4412,22 +4412,22 @@
         <v>56</v>
       </c>
       <c r="B43" s="13">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C43" s="13">
         <v>3</v>
       </c>
       <c r="D43" s="14">
-        <v>4.2220000000000004</v>
+        <v>8.2850000000000001</v>
       </c>
       <c r="E43" s="13">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F43" s="13">
         <v>0</v>
       </c>
       <c r="G43" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H43" s="13">
         <v>3</v>
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="13">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L43" s="13">
         <v>0</v>
@@ -4448,7 +4448,7 @@
         <v>3</v>
       </c>
       <c r="N43" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O43" s="13">
         <v>0</v>
@@ -4460,7 +4460,7 @@
         <v>3</v>
       </c>
       <c r="R43" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S43" s="13">
         <v>0.05</v>
@@ -4481,10 +4481,10 @@
         <v>0.05</v>
       </c>
       <c r="Y43" s="13">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="Z43" s="13">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
@@ -4492,55 +4492,55 @@
         <v>57</v>
       </c>
       <c r="B44" s="13">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C44" s="13">
+        <v>13</v>
+      </c>
+      <c r="D44" s="14">
+        <v>1.006</v>
+      </c>
+      <c r="E44" s="13">
+        <v>11</v>
+      </c>
+      <c r="F44" s="13">
+        <v>0</v>
+      </c>
+      <c r="G44" s="13">
+        <v>15</v>
+      </c>
+      <c r="H44" s="13">
+        <v>13</v>
+      </c>
+      <c r="I44" s="13">
+        <v>11</v>
+      </c>
+      <c r="J44" s="13">
+        <v>0</v>
+      </c>
+      <c r="K44" s="13">
+        <v>0</v>
+      </c>
+      <c r="L44" s="13">
+        <v>0</v>
+      </c>
+      <c r="M44" s="13">
         <v>12</v>
       </c>
-      <c r="D44" s="14">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="E44" s="13">
-        <v>10</v>
-      </c>
-      <c r="F44" s="13">
-        <v>0</v>
-      </c>
-      <c r="G44" s="13">
-        <v>14</v>
-      </c>
-      <c r="H44" s="13">
+      <c r="N44" s="13">
+        <v>11</v>
+      </c>
+      <c r="O44" s="13">
+        <v>0</v>
+      </c>
+      <c r="P44" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="13">
         <v>12</v>
       </c>
-      <c r="I44" s="13">
-        <v>10</v>
-      </c>
-      <c r="J44" s="13">
-        <v>0</v>
-      </c>
-      <c r="K44" s="13">
-        <v>0</v>
-      </c>
-      <c r="L44" s="13">
-        <v>0</v>
-      </c>
-      <c r="M44" s="13">
+      <c r="R44" s="13">
         <v>11</v>
-      </c>
-      <c r="N44" s="13">
-        <v>10</v>
-      </c>
-      <c r="O44" s="13">
-        <v>0</v>
-      </c>
-      <c r="P44" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="13">
-        <v>11</v>
-      </c>
-      <c r="R44" s="13">
-        <v>10</v>
       </c>
       <c r="S44" s="13">
         <v>0</v>
@@ -4572,13 +4572,13 @@
         <v>58</v>
       </c>
       <c r="B45" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C45" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" s="14">
-        <v>2.0409999999999999</v>
+        <v>2.044</v>
       </c>
       <c r="E45" s="13">
         <v>0</v>
@@ -4587,10 +4587,10 @@
         <v>0</v>
       </c>
       <c r="G45" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H45" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" s="13">
         <v>0</v>
@@ -4641,10 +4641,10 @@
         <v>0</v>
       </c>
       <c r="Y45" s="13">
-        <v>0.28000000000000003</v>
+        <v>0.32</v>
       </c>
       <c r="Z45" s="13">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
@@ -4652,25 +4652,25 @@
         <v>59</v>
       </c>
       <c r="B46" s="13">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C46" s="13">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D46" s="14">
         <v>0.106</v>
       </c>
       <c r="E46" s="13">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F46" s="13">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G46" s="13">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H46" s="13">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I46" s="13">
         <v>0</v>
@@ -4679,29 +4679,29 @@
         <v>0</v>
       </c>
       <c r="K46" s="13">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L46" s="13">
+        <v>69</v>
+      </c>
+      <c r="M46" s="13">
         <v>64</v>
       </c>
-      <c r="M46" s="13">
+      <c r="N46" s="13">
         <v>59</v>
-      </c>
-      <c r="N46" s="13">
-        <v>55</v>
       </c>
       <c r="O46" s="13" t="s">
         <v>21</v>
       </c>
       <c r="P46" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q46" s="13">
+        <v>61</v>
+      </c>
+      <c r="R46" s="13">
         <v>56</v>
       </c>
-      <c r="R46" s="13">
-        <v>53</v>
-      </c>
       <c r="S46" s="13">
         <v>0</v>
       </c>
@@ -4721,10 +4721,10 @@
         <v>0</v>
       </c>
       <c r="Y46" s="13">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="Z46" s="13">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
@@ -4732,25 +4732,25 @@
         <v>60</v>
       </c>
       <c r="B47" s="10">
-        <v>1133</v>
+        <v>1256</v>
       </c>
       <c r="C47" s="10">
-        <v>661</v>
+        <v>714</v>
       </c>
       <c r="D47" s="11">
-        <v>0.71299999999999997</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="E47" s="10">
-        <v>644</v>
+        <v>725</v>
       </c>
       <c r="F47" s="10">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="G47" s="10">
-        <v>489</v>
+        <v>531</v>
       </c>
       <c r="H47" s="10">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="I47" s="10">
         <v>5</v>
@@ -4759,16 +4759,16 @@
         <v>1</v>
       </c>
       <c r="K47" s="10">
-        <v>637</v>
+        <v>717</v>
       </c>
       <c r="L47" s="10">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="M47" s="10">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="N47" s="10">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="O47" s="10" t="s">
         <v>21</v>
@@ -4777,10 +4777,10 @@
         <v>2</v>
       </c>
       <c r="Q47" s="10">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="R47" s="10">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="S47" s="10">
         <v>0</v>
@@ -4801,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="Y47" s="10">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="Z47" s="10">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
@@ -4812,22 +4812,22 @@
         <v>61</v>
       </c>
       <c r="B48" s="13">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C48" s="13">
         <v>5</v>
       </c>
       <c r="D48" s="14">
-        <v>5.702</v>
+        <v>5.649</v>
       </c>
       <c r="E48" s="13">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F48" s="13">
         <v>0</v>
       </c>
       <c r="G48" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H48" s="13">
         <v>5</v>
@@ -4839,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="13">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L48" s="13">
         <v>0</v>
@@ -4881,10 +4881,10 @@
         <v>0</v>
       </c>
       <c r="Y48" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z48" s="13">
         <v>3</v>
-      </c>
-      <c r="Z48" s="13">
-        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
@@ -4892,13 +4892,13 @@
         <v>62</v>
       </c>
       <c r="B49" s="13">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="C49" s="13">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D49" s="14">
-        <v>0.372</v>
+        <v>0.35</v>
       </c>
       <c r="E49" s="13">
         <v>0</v>
@@ -4907,10 +4907,10 @@
         <v>0</v>
       </c>
       <c r="G49" s="13">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="H49" s="13">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="I49" s="13">
         <v>0</v>
@@ -4925,10 +4925,10 @@
         <v>0</v>
       </c>
       <c r="M49" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N49" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O49" s="13">
         <v>0</v>
@@ -4937,10 +4937,10 @@
         <v>0</v>
       </c>
       <c r="Q49" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R49" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S49" s="13">
         <v>0</v>
@@ -4961,10 +4961,10 @@
         <v>0</v>
       </c>
       <c r="Y49" s="13">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Z49" s="13">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
@@ -4972,13 +4972,13 @@
         <v>63</v>
       </c>
       <c r="B50" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C50" s="13">
         <v>4</v>
       </c>
       <c r="D50" s="14">
-        <v>1.524</v>
+        <v>1.387</v>
       </c>
       <c r="E50" s="13">
         <v>5</v>
@@ -4987,7 +4987,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H50" s="13">
         <v>3</v>
@@ -5052,25 +5052,25 @@
         <v>64</v>
       </c>
       <c r="B51" s="13">
-        <v>915</v>
+        <v>1021</v>
       </c>
       <c r="C51" s="13">
-        <v>523</v>
+        <v>563</v>
       </c>
       <c r="D51" s="14">
-        <v>0.748</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="E51" s="13">
-        <v>614</v>
+        <v>693</v>
       </c>
       <c r="F51" s="13">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="G51" s="13">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="H51" s="13">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="I51" s="13">
         <v>0</v>
@@ -5079,16 +5079,16 @@
         <v>0</v>
       </c>
       <c r="K51" s="13">
-        <v>612</v>
+        <v>690</v>
       </c>
       <c r="L51" s="13">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="M51" s="13">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="N51" s="13">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="O51" s="13" t="s">
         <v>21</v>
@@ -5097,10 +5097,10 @@
         <v>2</v>
       </c>
       <c r="Q51" s="13">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="R51" s="13">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="S51" s="13">
         <v>0</v>
@@ -5121,10 +5121,10 @@
         <v>0</v>
       </c>
       <c r="Y51" s="13">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="Z51" s="13">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
@@ -5132,61 +5132,61 @@
         <v>65</v>
       </c>
       <c r="B52" s="10">
-        <v>8961</v>
+        <v>9771</v>
       </c>
       <c r="C52" s="10">
-        <v>6302</v>
+        <v>6848</v>
       </c>
       <c r="D52" s="11">
-        <v>0.42199999999999999</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="E52" s="10">
-        <v>6501</v>
+        <v>7107</v>
       </c>
       <c r="F52" s="10">
-        <v>4452</v>
+        <v>4829</v>
       </c>
       <c r="G52" s="10">
-        <v>2460</v>
+        <v>2664</v>
       </c>
       <c r="H52" s="10">
-        <v>1850</v>
+        <v>2018</v>
       </c>
       <c r="I52" s="10">
-        <v>715</v>
+        <v>766</v>
       </c>
       <c r="J52" s="10">
-        <v>588</v>
+        <v>638</v>
       </c>
       <c r="K52" s="10">
-        <v>5682</v>
+        <v>6229</v>
       </c>
       <c r="L52" s="10">
-        <v>3794</v>
+        <v>4115</v>
       </c>
       <c r="M52" s="10">
-        <v>933</v>
+        <v>1008</v>
       </c>
       <c r="N52" s="10">
-        <v>804</v>
+        <v>873</v>
       </c>
       <c r="O52" s="10">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P52" s="10">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="Q52" s="10">
-        <v>831</v>
+        <v>899</v>
       </c>
       <c r="R52" s="10">
-        <v>736</v>
+        <v>799</v>
       </c>
       <c r="S52" s="10">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="T52" s="10">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="U52" s="10" t="s">
         <v>21</v>
@@ -5195,16 +5195,16 @@
         <v>2</v>
       </c>
       <c r="W52" s="10">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="X52" s="10">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="Y52" s="10">
-        <v>1461</v>
+        <v>1584</v>
       </c>
       <c r="Z52" s="10">
-        <v>969</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
@@ -5212,61 +5212,61 @@
         <v>66</v>
       </c>
       <c r="B53" s="13">
-        <v>4126</v>
+        <v>4453</v>
       </c>
       <c r="C53" s="13">
-        <v>3530</v>
+        <v>3835</v>
       </c>
       <c r="D53" s="14">
-        <v>0.16900000000000001</v>
+        <v>0.161</v>
       </c>
       <c r="E53" s="13">
-        <v>2698</v>
+        <v>2906</v>
       </c>
       <c r="F53" s="13">
-        <v>2364</v>
+        <v>2563</v>
       </c>
       <c r="G53" s="13">
-        <v>1428</v>
+        <v>1546</v>
       </c>
       <c r="H53" s="13">
-        <v>1167</v>
+        <v>1272</v>
       </c>
       <c r="I53" s="13">
-        <v>462</v>
+        <v>495</v>
       </c>
       <c r="J53" s="13">
-        <v>454</v>
+        <v>492</v>
       </c>
       <c r="K53" s="13">
-        <v>2218</v>
+        <v>2391</v>
       </c>
       <c r="L53" s="13">
-        <v>1890</v>
+        <v>2051</v>
       </c>
       <c r="M53" s="13">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="N53" s="13">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="O53" s="13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P53" s="13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q53" s="13">
-        <v>459</v>
+        <v>496</v>
       </c>
       <c r="R53" s="13">
-        <v>431</v>
+        <v>468</v>
       </c>
       <c r="S53" s="13">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="T53" s="13">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="U53" s="13">
         <v>0</v>
@@ -5275,16 +5275,16 @@
         <v>0</v>
       </c>
       <c r="W53" s="13">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="X53" s="13">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="Y53" s="13">
-        <v>830</v>
+        <v>900</v>
       </c>
       <c r="Z53" s="13">
-        <v>612</v>
+        <v>668</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
@@ -5292,25 +5292,25 @@
         <v>67</v>
       </c>
       <c r="B54" s="13">
-        <v>865</v>
+        <v>948</v>
       </c>
       <c r="C54" s="13">
-        <v>549</v>
+        <v>595</v>
       </c>
       <c r="D54" s="14">
-        <v>0.57499999999999996</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="E54" s="13">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="F54" s="13">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="G54" s="13">
-        <v>413</v>
+        <v>445</v>
       </c>
       <c r="H54" s="13">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="I54" s="13">
         <v>0</v>
@@ -5319,28 +5319,28 @@
         <v>0</v>
       </c>
       <c r="K54" s="13">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="L54" s="13">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="M54" s="13">
+        <v>207</v>
+      </c>
+      <c r="N54" s="13">
+        <v>180</v>
+      </c>
+      <c r="O54" s="13">
+        <v>15</v>
+      </c>
+      <c r="P54" s="13">
+        <v>12</v>
+      </c>
+      <c r="Q54" s="13">
         <v>191</v>
       </c>
-      <c r="N54" s="13">
-        <v>167</v>
-      </c>
-      <c r="O54" s="13">
-        <v>14</v>
-      </c>
-      <c r="P54" s="13">
-        <v>11</v>
-      </c>
-      <c r="Q54" s="13">
-        <v>177</v>
-      </c>
       <c r="R54" s="13">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="S54" s="13">
         <v>2</v>
@@ -5361,10 +5361,10 @@
         <v>2</v>
       </c>
       <c r="Y54" s="13">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="Z54" s="13">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
@@ -5372,16 +5372,16 @@
         <v>68</v>
       </c>
       <c r="B55" s="13">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C55" s="13">
         <v>6</v>
       </c>
       <c r="D55" s="14">
-        <v>4.1029999999999998</v>
+        <v>4.5410000000000004</v>
       </c>
       <c r="E55" s="13">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F55" s="13">
         <v>0</v>
@@ -5399,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="13">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L55" s="13">
         <v>0</v>
@@ -5423,10 +5423,10 @@
         <v>2</v>
       </c>
       <c r="S55" s="13">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="T55" s="13">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="U55" s="13">
         <v>0</v>
@@ -5435,10 +5435,10 @@
         <v>0</v>
       </c>
       <c r="W55" s="13">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="X55" s="13">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Y55" s="13">
         <v>6</v>
@@ -5452,13 +5452,13 @@
         <v>69</v>
       </c>
       <c r="B56" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C56" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D56" s="14">
-        <v>0.34799999999999998</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="E56" s="13">
         <v>0</v>
@@ -5467,10 +5467,10 @@
         <v>0</v>
       </c>
       <c r="G56" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H56" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I56" s="13">
         <v>0</v>
@@ -5532,61 +5532,61 @@
         <v>70</v>
       </c>
       <c r="B57" s="13">
-        <v>2293</v>
+        <v>2482</v>
       </c>
       <c r="C57" s="13">
-        <v>1485</v>
+        <v>1619</v>
       </c>
       <c r="D57" s="14">
-        <v>0.54400000000000004</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="E57" s="13">
-        <v>1969</v>
+        <v>2132</v>
       </c>
       <c r="F57" s="13">
-        <v>1333</v>
+        <v>1449</v>
       </c>
       <c r="G57" s="13">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="H57" s="13">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="I57" s="13">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J57" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="13">
-        <v>1867</v>
+        <v>2023</v>
       </c>
       <c r="L57" s="13">
-        <v>1293</v>
+        <v>1404</v>
       </c>
       <c r="M57" s="13">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="N57" s="13">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="O57" s="13">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="P57" s="13">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q57" s="13">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="R57" s="13">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="S57" s="13">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T57" s="13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U57" s="13" t="s">
         <v>21</v>
@@ -5595,16 +5595,16 @@
         <v>2</v>
       </c>
       <c r="W57" s="13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X57" s="13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Y57" s="13">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="Z57" s="13">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
@@ -5612,44 +5612,44 @@
         <v>71</v>
       </c>
       <c r="B58" s="13">
-        <v>833</v>
+        <v>914</v>
       </c>
       <c r="C58" s="13">
-        <v>653</v>
+        <v>705</v>
       </c>
       <c r="D58" s="14">
-        <v>0.27500000000000002</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="E58" s="13">
-        <v>685</v>
+        <v>753</v>
       </c>
       <c r="F58" s="13">
-        <v>533</v>
+        <v>574</v>
       </c>
       <c r="G58" s="13">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="H58" s="13">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="I58" s="13">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="J58" s="13">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="K58" s="13">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="L58" s="13">
-        <v>399</v>
+        <v>430</v>
       </c>
       <c r="M58" s="13">
+        <v>73</v>
+      </c>
+      <c r="N58" s="13">
         <v>67</v>
       </c>
-      <c r="N58" s="13">
-        <v>62</v>
-      </c>
       <c r="O58" s="13">
         <v>0</v>
       </c>
@@ -5657,10 +5657,10 @@
         <v>0</v>
       </c>
       <c r="Q58" s="13">
+        <v>73</v>
+      </c>
+      <c r="R58" s="13">
         <v>67</v>
-      </c>
-      <c r="R58" s="13">
-        <v>62</v>
       </c>
       <c r="S58" s="13">
         <v>1</v>
@@ -5681,10 +5681,10 @@
         <v>1</v>
       </c>
       <c r="Y58" s="13">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Z58" s="13">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
@@ -5692,25 +5692,25 @@
         <v>72</v>
       </c>
       <c r="B59" s="13">
-        <v>802</v>
+        <v>928</v>
       </c>
       <c r="C59" s="13">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E59" s="13">
-        <v>677</v>
+        <v>790</v>
       </c>
       <c r="F59" s="13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G59" s="13">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="H59" s="13">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I59" s="13">
         <v>0</v>
@@ -5719,16 +5719,16 @@
         <v>0</v>
       </c>
       <c r="K59" s="13">
-        <v>677</v>
+        <v>790</v>
       </c>
       <c r="L59" s="13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M59" s="13">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N59" s="13">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O59" s="13">
         <v>0</v>
@@ -5737,10 +5737,10 @@
         <v>0</v>
       </c>
       <c r="Q59" s="13">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R59" s="13">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S59" s="13">
         <v>6</v>
@@ -5761,10 +5761,10 @@
         <v>4</v>
       </c>
       <c r="Y59" s="13">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="Z59" s="13">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
@@ -5775,7 +5775,7 @@
         <v>3</v>
       </c>
       <c r="C60" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" s="14">
         <v>0.314</v>
@@ -5790,7 +5790,7 @@
         <v>3</v>
       </c>
       <c r="H60" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I60" s="13">
         <v>0</v>
@@ -5823,10 +5823,10 @@
         <v>1</v>
       </c>
       <c r="S60" s="13">
-        <v>0.26</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="T60" s="13">
-        <v>0.26</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="U60" s="13">
         <v>0</v>
@@ -5835,10 +5835,10 @@
         <v>0</v>
       </c>
       <c r="W60" s="13">
-        <v>0.26</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="X60" s="13">
-        <v>0.26</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Y60" s="13">
         <v>2</v>
@@ -5852,79 +5852,79 @@
         <v>74</v>
       </c>
       <c r="B61" s="10">
-        <v>21921</v>
+        <v>23719</v>
       </c>
       <c r="C61" s="10">
-        <v>16180</v>
+        <v>17527</v>
       </c>
       <c r="D61" s="11">
-        <v>0.35499999999999998</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="E61" s="10">
-        <v>14486</v>
+        <v>15683</v>
       </c>
       <c r="F61" s="10">
-        <v>10855</v>
+        <v>11760</v>
       </c>
       <c r="G61" s="10">
-        <v>7435</v>
+        <v>8035</v>
       </c>
       <c r="H61" s="10">
-        <v>5324</v>
+        <v>5766</v>
       </c>
       <c r="I61" s="10">
-        <v>464</v>
+        <v>498</v>
       </c>
       <c r="J61" s="10">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="K61" s="10">
-        <v>13899</v>
+        <v>15054</v>
       </c>
       <c r="L61" s="10">
-        <v>10345</v>
+        <v>11209</v>
       </c>
       <c r="M61" s="10">
-        <v>1798</v>
+        <v>1950</v>
       </c>
       <c r="N61" s="10">
-        <v>1387</v>
+        <v>1497</v>
       </c>
       <c r="O61" s="10">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="P61" s="10">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Q61" s="10">
-        <v>1685</v>
+        <v>1829</v>
       </c>
       <c r="R61" s="10">
-        <v>1302</v>
+        <v>1406</v>
       </c>
       <c r="S61" s="10">
-        <v>1161</v>
+        <v>1253</v>
       </c>
       <c r="T61" s="10">
-        <v>913</v>
+        <v>985</v>
       </c>
       <c r="U61" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V61" s="10">
         <v>6</v>
       </c>
       <c r="W61" s="10">
-        <v>1151</v>
+        <v>1243</v>
       </c>
       <c r="X61" s="10">
-        <v>908</v>
+        <v>979</v>
       </c>
       <c r="Y61" s="10">
-        <v>4599</v>
+        <v>4964</v>
       </c>
       <c r="Z61" s="10">
-        <v>3114</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
@@ -5932,79 +5932,79 @@
         <v>75</v>
       </c>
       <c r="B62" s="13">
-        <v>21685</v>
+        <v>23464</v>
       </c>
       <c r="C62" s="13">
-        <v>16022</v>
+        <v>17361</v>
       </c>
       <c r="D62" s="14">
-        <v>0.35299999999999998</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="E62" s="13">
-        <v>14436</v>
+        <v>15623</v>
       </c>
       <c r="F62" s="13">
-        <v>10833</v>
+        <v>11737</v>
       </c>
       <c r="G62" s="13">
-        <v>7249</v>
+        <v>7841</v>
       </c>
       <c r="H62" s="13">
-        <v>5188</v>
+        <v>5624</v>
       </c>
       <c r="I62" s="13">
-        <v>457</v>
+        <v>491</v>
       </c>
       <c r="J62" s="13">
-        <v>414</v>
+        <v>447</v>
       </c>
       <c r="K62" s="13">
-        <v>13856</v>
+        <v>15001</v>
       </c>
       <c r="L62" s="13">
-        <v>10329</v>
+        <v>11192</v>
       </c>
       <c r="M62" s="13">
-        <v>1742</v>
+        <v>1892</v>
       </c>
       <c r="N62" s="13">
-        <v>1339</v>
+        <v>1447</v>
       </c>
       <c r="O62" s="13">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="P62" s="13">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="13">
-        <v>1629</v>
+        <v>1770</v>
       </c>
       <c r="R62" s="13">
-        <v>1255</v>
+        <v>1356</v>
       </c>
       <c r="S62" s="13">
-        <v>1156</v>
+        <v>1248</v>
       </c>
       <c r="T62" s="13">
-        <v>910</v>
+        <v>982</v>
       </c>
       <c r="U62" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V62" s="13">
         <v>6</v>
       </c>
       <c r="W62" s="13">
-        <v>1146</v>
+        <v>1238</v>
       </c>
       <c r="X62" s="13">
-        <v>904</v>
+        <v>976</v>
       </c>
       <c r="Y62" s="13">
-        <v>4473</v>
+        <v>4833</v>
       </c>
       <c r="Z62" s="13">
-        <v>3029</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
@@ -6012,43 +6012,43 @@
         <v>76</v>
       </c>
       <c r="B63" s="13">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C63" s="13">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D63" s="14">
-        <v>0.45200000000000001</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="E63" s="13">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F63" s="13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G63" s="13">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H63" s="13">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I63" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J63" s="13">
         <v>6</v>
       </c>
       <c r="K63" s="13">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="L63" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M63" s="13">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N63" s="13">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O63" s="13">
         <v>0</v>
@@ -6057,16 +6057,16 @@
         <v>0</v>
       </c>
       <c r="Q63" s="13">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R63" s="13">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S63" s="13">
         <v>5</v>
       </c>
       <c r="T63" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U63" s="13">
         <v>0</v>
@@ -6078,13 +6078,13 @@
         <v>5</v>
       </c>
       <c r="X63" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y63" s="13">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Z63" s="13">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
@@ -6092,13 +6092,13 @@
         <v>77</v>
       </c>
       <c r="B64" s="13">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C64" s="13">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D64" s="14">
-        <v>0.57699999999999996</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="E64" s="13">
         <v>1</v>
@@ -6107,10 +6107,10 @@
         <v>1</v>
       </c>
       <c r="G64" s="13">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H64" s="13">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I64" s="13">
         <v>1</v>
@@ -6128,7 +6128,7 @@
         <v>12</v>
       </c>
       <c r="N64" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O64" s="13">
         <v>0</v>
@@ -6140,10 +6140,10 @@
         <v>12</v>
       </c>
       <c r="R64" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S64" s="13">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="T64" s="13">
         <v>0.06</v>
@@ -6155,16 +6155,16 @@
         <v>0</v>
       </c>
       <c r="W64" s="13">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="X64" s="13">
         <v>0.06</v>
       </c>
       <c r="Y64" s="13">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Z64" s="13">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
@@ -6172,43 +6172,43 @@
         <v>78</v>
       </c>
       <c r="B65" s="10">
-        <v>705</v>
+        <v>764</v>
       </c>
       <c r="C65" s="10">
+        <v>635</v>
+      </c>
+      <c r="D65" s="11">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="E65" s="10">
+        <v>87</v>
+      </c>
+      <c r="F65" s="10">
+        <v>51</v>
+      </c>
+      <c r="G65" s="10">
+        <v>677</v>
+      </c>
+      <c r="H65" s="10">
         <v>585</v>
       </c>
-      <c r="D65" s="11">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="E65" s="10">
-        <v>81</v>
-      </c>
-      <c r="F65" s="10">
+      <c r="I65" s="10">
         <v>46</v>
       </c>
-      <c r="G65" s="10">
-        <v>624</v>
-      </c>
-      <c r="H65" s="10">
-        <v>539</v>
-      </c>
-      <c r="I65" s="10">
-        <v>43</v>
-      </c>
       <c r="J65" s="10">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K65" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L65" s="10">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M65" s="10">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="N65" s="10">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="O65" s="10">
         <v>0</v>
@@ -6217,16 +6217,16 @@
         <v>0</v>
       </c>
       <c r="Q65" s="10">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="R65" s="10">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="S65" s="10">
         <v>2</v>
       </c>
       <c r="T65" s="10">
-        <v>0.16</v>
+        <v>0.31</v>
       </c>
       <c r="U65" s="10">
         <v>0</v>
@@ -6238,13 +6238,13 @@
         <v>2</v>
       </c>
       <c r="X65" s="10">
-        <v>0.16</v>
+        <v>0.31</v>
       </c>
       <c r="Y65" s="10">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="Z65" s="10">
-        <v>329</v>
+        <v>358</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
@@ -6332,43 +6332,43 @@
         <v>81</v>
       </c>
       <c r="B67" s="13">
-        <v>705</v>
+        <v>764</v>
       </c>
       <c r="C67" s="13">
+        <v>635</v>
+      </c>
+      <c r="D67" s="14">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="E67" s="13">
+        <v>87</v>
+      </c>
+      <c r="F67" s="13">
+        <v>51</v>
+      </c>
+      <c r="G67" s="13">
+        <v>677</v>
+      </c>
+      <c r="H67" s="13">
         <v>585</v>
       </c>
-      <c r="D67" s="14">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="E67" s="13">
-        <v>81</v>
-      </c>
-      <c r="F67" s="13">
+      <c r="I67" s="13">
         <v>46</v>
       </c>
-      <c r="G67" s="13">
-        <v>624</v>
-      </c>
-      <c r="H67" s="13">
-        <v>539</v>
-      </c>
-      <c r="I67" s="13">
-        <v>43</v>
-      </c>
       <c r="J67" s="13">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K67" s="13">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L67" s="13">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M67" s="13">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="N67" s="13">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="O67" s="13">
         <v>0</v>
@@ -6377,16 +6377,16 @@
         <v>0</v>
       </c>
       <c r="Q67" s="13">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="R67" s="13">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="S67" s="13">
         <v>2</v>
       </c>
       <c r="T67" s="13">
-        <v>0.16</v>
+        <v>0.31</v>
       </c>
       <c r="U67" s="13">
         <v>0</v>
@@ -6398,13 +6398,13 @@
         <v>2</v>
       </c>
       <c r="X67" s="13">
-        <v>0.16</v>
+        <v>0.31</v>
       </c>
       <c r="Y67" s="13">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="Z67" s="13">
-        <v>329</v>
+        <v>358</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
@@ -6412,79 +6412,79 @@
         <v>82</v>
       </c>
       <c r="B68" s="10">
-        <v>45055</v>
+        <v>48820</v>
       </c>
       <c r="C68" s="10">
-        <v>30940</v>
+        <v>33447</v>
       </c>
       <c r="D68" s="11">
-        <v>0.45600000000000002</v>
+        <v>0.46</v>
       </c>
       <c r="E68" s="10">
-        <v>28081</v>
+        <v>30539</v>
       </c>
       <c r="F68" s="10">
-        <v>18696</v>
+        <v>20222</v>
       </c>
       <c r="G68" s="10">
-        <v>16974</v>
+        <v>18281</v>
       </c>
       <c r="H68" s="10">
-        <v>12243</v>
+        <v>13225</v>
       </c>
       <c r="I68" s="10">
-        <v>1820</v>
+        <v>1960</v>
       </c>
       <c r="J68" s="10">
-        <v>1193</v>
+        <v>1292</v>
       </c>
       <c r="K68" s="10">
-        <v>25739</v>
+        <v>28017</v>
       </c>
       <c r="L68" s="10">
-        <v>17119</v>
+        <v>18517</v>
       </c>
       <c r="M68" s="10">
-        <v>6740</v>
+        <v>7244</v>
       </c>
       <c r="N68" s="10">
-        <v>5339</v>
+        <v>5733</v>
       </c>
       <c r="O68" s="10">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="P68" s="10">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="Q68" s="10">
-        <v>6243</v>
+        <v>6710</v>
       </c>
       <c r="R68" s="10">
-        <v>4973</v>
+        <v>5340</v>
       </c>
       <c r="S68" s="10">
-        <v>1623</v>
+        <v>1748</v>
       </c>
       <c r="T68" s="10">
-        <v>1276</v>
+        <v>1378</v>
       </c>
       <c r="U68" s="10">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="V68" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W68" s="10">
-        <v>1596</v>
+        <v>1720</v>
       </c>
       <c r="X68" s="10">
-        <v>1258</v>
+        <v>1358</v>
       </c>
       <c r="Y68" s="10">
-        <v>9134</v>
+        <v>9851</v>
       </c>
       <c r="Z68" s="10">
-        <v>6012</v>
+        <v>6527</v>
       </c>
     </row>
     <row r="69" spans="1:26" ht="96" customHeight="1" x14ac:dyDescent="0.25">
